--- a/Date Tema 2` Algoritmi Genetici.xlsx
+++ b/Date Tema 2` Algoritmi Genetici.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,12 @@
     <sheet name="Foaie2" sheetId="2" r:id="rId2"/>
     <sheet name="Foaie3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DeJong 5 dimensiuni</t>
   </si>
@@ -62,17 +59,20 @@
   <si>
     <t>Distanta pana la valoarea corecta</t>
   </si>
+  <si>
+    <t>Tema 2`</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="184" formatCode="0.000"/>
-    <numFmt numFmtId="185" formatCode="0.0000"/>
-    <numFmt numFmtId="187" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -148,7 +156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,14 +165,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -175,6 +189,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -618,13 +635,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187090432"/>
-        <c:axId val="187209600"/>
+        <c:axId val="361819712"/>
+        <c:axId val="361824024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187090432"/>
+        <c:axId val="361819712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187209600"/>
+        <c:crossAx val="361824024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -642,7 +658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187209600"/>
+        <c:axId val="361824024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187090432"/>
+        <c:crossAx val="361819712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -966,13 +982,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185875840"/>
-        <c:axId val="185914496"/>
+        <c:axId val="361824416"/>
+        <c:axId val="361824808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185875840"/>
+        <c:axId val="361824416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185914496"/>
+        <c:crossAx val="361824808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +1005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185914496"/>
+        <c:axId val="361824808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185875840"/>
+        <c:crossAx val="361824416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1756,13 +1771,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200932736"/>
-        <c:axId val="200938624"/>
+        <c:axId val="361820104"/>
+        <c:axId val="363953440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200932736"/>
+        <c:axId val="361820104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200938624"/>
+        <c:crossAx val="363953440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1780,7 +1794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200938624"/>
+        <c:axId val="363953440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200932736"/>
+        <c:crossAx val="361820104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,6 +1825,2083 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>DeJong</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ro-RO" baseline="0"/>
+              <a:t> 30 dim</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0193922375307804E-2"/>
+          <c:y val="0.11742583313468764"/>
+          <c:w val="0.95116259416445004"/>
+          <c:h val="0.69389634140716905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Algoritm nou</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foaie1!$E$179:$E$277</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48800</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52300</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55900</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63900</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65200</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68700</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>72100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>73300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>74400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75700</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>76900</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>79200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>80300</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>83800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>84900</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>86200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>88500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>90800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>93100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>94300</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95400</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>96700</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>97900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>100200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>101300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>102500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>103600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>104800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>105900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>107200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>108400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>109500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>110700</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>111800</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>113000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>114100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>115300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foaie1!$B$179:$B$267</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>108.574226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.158321000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.385289999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.687641999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.822682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.449434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.670746000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.140474000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.804122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.380222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.87355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.055934000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.298590000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.545949999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8330579999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0484019999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7289139999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5653940000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0307459999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4880259999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8608260000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6369379999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.117362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6755100000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0436019999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9847739999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7102900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.625426</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2490540000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.837326</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7371259999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4719099999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.329062</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0331260000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9750300000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.58175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4941979999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.25919</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.25919</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.134134</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0801499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93359000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84399000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.74133400000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.67619799999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66791</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.59779800000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49181399999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48506199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.44419799999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.432894</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41815799999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37610199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34271400000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25290200000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19542999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19389400000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17968600000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.163518</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.13791800000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1406000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.547E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5365999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.7509999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6405999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0358E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.0158000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.1461999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7126000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.6773999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1794000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7905999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7809999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5002E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3386E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3034E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9379999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.5940000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.8859999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.8019999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.6860000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.398E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.9779999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.9459999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2820000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.3059999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.2780000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4420000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3540000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Algoritmul vechi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foaie1!$E$179:$E$277</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48800</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52300</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55900</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63900</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65200</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68700</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>72100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>73300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>74400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75700</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>76900</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>79200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>80300</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>83800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>84900</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>86200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>88500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>90800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>93100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>94300</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95400</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>96700</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>97900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>100200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>101300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>102500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>103600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>104800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>105900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>107200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>108400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>109500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>110700</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>111800</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>113000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>114100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>115300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foaie1!$F$179:$F$277</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>80.151899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.244299999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.211500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.007899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.003900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.738099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0758000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0172999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1606000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.677</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3738999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1084000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3682000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5514</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49669999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1462</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.6099999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="364390344"/>
+        <c:axId val="364391520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="364390344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364391520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="364391520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364390344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1905,24 +3996,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1964,7 +4072,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1999,7 +4107,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,10 +4316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+    <sheetView tabSelected="1" topLeftCell="B277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K321" sqref="K321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,7 +6077,1366 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C173" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1100</v>
+      </c>
+      <c r="B179">
+        <v>108.574226</v>
+      </c>
+      <c r="E179">
+        <v>1100</v>
+      </c>
+      <c r="F179">
+        <v>80.151899999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2200</v>
+      </c>
+      <c r="B180">
+        <v>73.158321000000001</v>
+      </c>
+      <c r="E180">
+        <v>2200</v>
+      </c>
+      <c r="F180">
+        <v>69.244299999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3400</v>
+      </c>
+      <c r="B181">
+        <v>45.385289999999998</v>
+      </c>
+      <c r="E181">
+        <v>3400</v>
+      </c>
+      <c r="F181">
+        <v>41.211500000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4500</v>
+      </c>
+      <c r="B182">
+        <v>35.687641999999997</v>
+      </c>
+      <c r="E182">
+        <v>4500</v>
+      </c>
+      <c r="F182">
+        <v>25.007899999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>5700</v>
+      </c>
+      <c r="B183">
+        <v>24.822682</v>
+      </c>
+      <c r="E183">
+        <v>5700</v>
+      </c>
+      <c r="F183">
+        <v>17.003900000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>6800</v>
+      </c>
+      <c r="B184">
+        <v>21.449434</v>
+      </c>
+      <c r="E184">
+        <v>6800</v>
+      </c>
+      <c r="F184">
+        <v>11.738099999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8000</v>
+      </c>
+      <c r="B185">
+        <v>19.670746000000001</v>
+      </c>
+      <c r="E185">
+        <v>8000</v>
+      </c>
+      <c r="F185">
+        <v>10.0365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>9100</v>
+      </c>
+      <c r="B186">
+        <v>18.140474000000001</v>
+      </c>
+      <c r="E186">
+        <v>9100</v>
+      </c>
+      <c r="F186">
+        <v>7.1005000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>10400</v>
+      </c>
+      <c r="B187">
+        <v>15.804122</v>
+      </c>
+      <c r="E187">
+        <v>10300</v>
+      </c>
+      <c r="F187">
+        <v>6.0758000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>11600</v>
+      </c>
+      <c r="B188">
+        <v>14.380222</v>
+      </c>
+      <c r="E188">
+        <v>11400</v>
+      </c>
+      <c r="F188">
+        <v>5.0172999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>12700</v>
+      </c>
+      <c r="B189">
+        <v>13.87355</v>
+      </c>
+      <c r="E189">
+        <v>12700</v>
+      </c>
+      <c r="F189">
+        <v>3.7023999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>13900</v>
+      </c>
+      <c r="B190">
+        <v>13.055934000000001</v>
+      </c>
+      <c r="E190">
+        <v>13900</v>
+      </c>
+      <c r="F190">
+        <v>3.1606000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>15000</v>
+      </c>
+      <c r="B191">
+        <v>11.298590000000001</v>
+      </c>
+      <c r="E191">
+        <v>15000</v>
+      </c>
+      <c r="F191">
+        <v>2.677</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>16200</v>
+      </c>
+      <c r="B192">
+        <v>10.545949999999999</v>
+      </c>
+      <c r="E192">
+        <v>16200</v>
+      </c>
+      <c r="F192">
+        <v>2.3738999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>17300</v>
+      </c>
+      <c r="B193">
+        <v>9.8330579999999994</v>
+      </c>
+      <c r="E193">
+        <v>17300</v>
+      </c>
+      <c r="F193">
+        <v>2.1084000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>18500</v>
+      </c>
+      <c r="B194">
+        <v>9.0484019999999994</v>
+      </c>
+      <c r="E194">
+        <v>18500</v>
+      </c>
+      <c r="F194">
+        <v>1.5024999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>19600</v>
+      </c>
+      <c r="B195">
+        <v>8.7289139999999996</v>
+      </c>
+      <c r="E195">
+        <v>19600</v>
+      </c>
+      <c r="F195">
+        <v>1.3682000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>20900</v>
+      </c>
+      <c r="B196">
+        <v>7.5653940000000004</v>
+      </c>
+      <c r="E196">
+        <v>20800</v>
+      </c>
+      <c r="F196">
+        <v>1.0155000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>22100</v>
+      </c>
+      <c r="B197">
+        <v>7.0307459999999997</v>
+      </c>
+      <c r="E197">
+        <v>21900</v>
+      </c>
+      <c r="F197">
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>23200</v>
+      </c>
+      <c r="B198">
+        <v>6.4880259999999996</v>
+      </c>
+      <c r="E198">
+        <v>23200</v>
+      </c>
+      <c r="F198">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>24400</v>
+      </c>
+      <c r="B199">
+        <v>5.8608260000000003</v>
+      </c>
+      <c r="E199">
+        <v>24400</v>
+      </c>
+      <c r="F199">
+        <v>0.5514</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>25500</v>
+      </c>
+      <c r="B200">
+        <v>5.6369379999999998</v>
+      </c>
+      <c r="E200">
+        <v>25500</v>
+      </c>
+      <c r="F200">
+        <v>0.49669999999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>26700</v>
+      </c>
+      <c r="B201">
+        <v>5.117362</v>
+      </c>
+      <c r="E201">
+        <v>26700</v>
+      </c>
+      <c r="F201">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>27800</v>
+      </c>
+      <c r="B202">
+        <v>4.6755100000000001</v>
+      </c>
+      <c r="E202">
+        <v>27800</v>
+      </c>
+      <c r="F202">
+        <v>0.26129999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>29000</v>
+      </c>
+      <c r="B203">
+        <v>4.0436019999999999</v>
+      </c>
+      <c r="E203">
+        <v>29000</v>
+      </c>
+      <c r="F203">
+        <v>0.2336</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>30100</v>
+      </c>
+      <c r="B204">
+        <v>3.9847739999999998</v>
+      </c>
+      <c r="E204">
+        <v>30100</v>
+      </c>
+      <c r="F204">
+        <v>0.1462</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>31400</v>
+      </c>
+      <c r="B205">
+        <v>3.7102900000000001</v>
+      </c>
+      <c r="E205">
+        <v>31300</v>
+      </c>
+      <c r="F205">
+        <v>0.1401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>32600</v>
+      </c>
+      <c r="B206">
+        <v>3.625426</v>
+      </c>
+      <c r="E206">
+        <v>32400</v>
+      </c>
+      <c r="F206">
+        <v>0.12989999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>33700</v>
+      </c>
+      <c r="B207">
+        <v>3.2490540000000001</v>
+      </c>
+      <c r="E207">
+        <v>33700</v>
+      </c>
+      <c r="F207">
+        <v>0.11409999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>34900</v>
+      </c>
+      <c r="B208">
+        <v>2.837326</v>
+      </c>
+      <c r="E208">
+        <v>34900</v>
+      </c>
+      <c r="F208">
+        <v>0.10970000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>36000</v>
+      </c>
+      <c r="B209">
+        <v>2.7371259999999999</v>
+      </c>
+      <c r="E209">
+        <v>36000</v>
+      </c>
+      <c r="F209">
+        <v>8.6099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>37200</v>
+      </c>
+      <c r="B210">
+        <v>2.4719099999999998</v>
+      </c>
+      <c r="E210">
+        <v>37200</v>
+      </c>
+      <c r="F210">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>38300</v>
+      </c>
+      <c r="B211">
+        <v>2.329062</v>
+      </c>
+      <c r="E211">
+        <v>38300</v>
+      </c>
+      <c r="F211">
+        <v>5.2400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>39500</v>
+      </c>
+      <c r="B212">
+        <v>2.0331260000000002</v>
+      </c>
+      <c r="E212">
+        <v>39500</v>
+      </c>
+      <c r="F212">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>40600</v>
+      </c>
+      <c r="B213">
+        <v>1.9750300000000001</v>
+      </c>
+      <c r="E213">
+        <v>40600</v>
+      </c>
+      <c r="F213">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>41900</v>
+      </c>
+      <c r="B214">
+        <v>1.58175</v>
+      </c>
+      <c r="E214">
+        <v>41800</v>
+      </c>
+      <c r="F214">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>43100</v>
+      </c>
+      <c r="B215">
+        <v>1.4941979999999999</v>
+      </c>
+      <c r="E215">
+        <v>42900</v>
+      </c>
+      <c r="F215">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>44200</v>
+      </c>
+      <c r="B216">
+        <v>1.25919</v>
+      </c>
+      <c r="E216">
+        <v>44200</v>
+      </c>
+      <c r="F216">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>45400</v>
+      </c>
+      <c r="B217">
+        <v>1.25919</v>
+      </c>
+      <c r="E217">
+        <v>45400</v>
+      </c>
+      <c r="F217">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>46500</v>
+      </c>
+      <c r="B218">
+        <v>1.134134</v>
+      </c>
+      <c r="E218">
+        <v>46500</v>
+      </c>
+      <c r="F218">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>47700</v>
+      </c>
+      <c r="B219">
+        <v>1.0801499999999999</v>
+      </c>
+      <c r="E219">
+        <v>47700</v>
+      </c>
+      <c r="F219">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>48800</v>
+      </c>
+      <c r="B220">
+        <v>0.93359000000000003</v>
+      </c>
+      <c r="E220">
+        <v>48800</v>
+      </c>
+      <c r="F220">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>50000</v>
+      </c>
+      <c r="B221">
+        <v>0.84399000000000002</v>
+      </c>
+      <c r="E221">
+        <v>50000</v>
+      </c>
+      <c r="F221">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>51100</v>
+      </c>
+      <c r="B222">
+        <v>0.74133400000000005</v>
+      </c>
+      <c r="E222">
+        <v>51100</v>
+      </c>
+      <c r="F222">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>52400</v>
+      </c>
+      <c r="B223">
+        <v>0.67619799999999997</v>
+      </c>
+      <c r="E223">
+        <v>52300</v>
+      </c>
+      <c r="F223">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>53600</v>
+      </c>
+      <c r="B224">
+        <v>0.66791</v>
+      </c>
+      <c r="E224">
+        <v>53400</v>
+      </c>
+      <c r="F224">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>54700</v>
+      </c>
+      <c r="B225">
+        <v>0.59779800000000005</v>
+      </c>
+      <c r="E225">
+        <v>54700</v>
+      </c>
+      <c r="F225">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>55900</v>
+      </c>
+      <c r="B226">
+        <v>0.49181399999999997</v>
+      </c>
+      <c r="E226">
+        <v>55900</v>
+      </c>
+      <c r="F226">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>57000</v>
+      </c>
+      <c r="B227">
+        <v>0.48506199999999999</v>
+      </c>
+      <c r="E227">
+        <v>57000</v>
+      </c>
+      <c r="F227">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>58200</v>
+      </c>
+      <c r="B228">
+        <v>0.44419799999999998</v>
+      </c>
+      <c r="E228">
+        <v>58200</v>
+      </c>
+      <c r="F228">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>59300</v>
+      </c>
+      <c r="B229">
+        <v>0.432894</v>
+      </c>
+      <c r="E229">
+        <v>59300</v>
+      </c>
+      <c r="F229">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>60500</v>
+      </c>
+      <c r="B230">
+        <v>0.41815799999999997</v>
+      </c>
+      <c r="E230">
+        <v>60500</v>
+      </c>
+      <c r="F230">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>61600</v>
+      </c>
+      <c r="B231">
+        <v>0.37610199999999999</v>
+      </c>
+      <c r="E231">
+        <v>61600</v>
+      </c>
+      <c r="F231">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>62900</v>
+      </c>
+      <c r="B232">
+        <v>0.34271400000000002</v>
+      </c>
+      <c r="E232">
+        <v>62800</v>
+      </c>
+      <c r="F232">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>64100</v>
+      </c>
+      <c r="B233">
+        <v>0.25290200000000002</v>
+      </c>
+      <c r="E233">
+        <v>63900</v>
+      </c>
+      <c r="F233">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>65200</v>
+      </c>
+      <c r="B234">
+        <v>0.19542999999999999</v>
+      </c>
+      <c r="E234">
+        <v>65200</v>
+      </c>
+      <c r="F234">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>66400</v>
+      </c>
+      <c r="B235">
+        <v>0.19389400000000001</v>
+      </c>
+      <c r="E235">
+        <v>66400</v>
+      </c>
+      <c r="F235">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>67500</v>
+      </c>
+      <c r="B236">
+        <v>0.17968600000000001</v>
+      </c>
+      <c r="E236">
+        <v>67500</v>
+      </c>
+      <c r="F236">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>68700</v>
+      </c>
+      <c r="B237">
+        <v>0.163518</v>
+      </c>
+      <c r="E237">
+        <v>68700</v>
+      </c>
+      <c r="F237">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>69800</v>
+      </c>
+      <c r="B238">
+        <v>0.13791800000000001</v>
+      </c>
+      <c r="E238">
+        <v>69800</v>
+      </c>
+      <c r="F238">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>71000</v>
+      </c>
+      <c r="B239">
+        <v>9.1406000000000001E-2</v>
+      </c>
+      <c r="E239">
+        <v>71000</v>
+      </c>
+      <c r="F239">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>72100</v>
+      </c>
+      <c r="B240">
+        <v>6.547E-2</v>
+      </c>
+      <c r="E240">
+        <v>72100</v>
+      </c>
+      <c r="F240">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>73400</v>
+      </c>
+      <c r="B241">
+        <v>6.5365999999999994E-2</v>
+      </c>
+      <c r="E241">
+        <v>73300</v>
+      </c>
+      <c r="F241">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>74600</v>
+      </c>
+      <c r="B242">
+        <v>5.7509999999999999E-2</v>
+      </c>
+      <c r="E242">
+        <v>74400</v>
+      </c>
+      <c r="F242">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>75700</v>
+      </c>
+      <c r="B243">
+        <v>5.6405999999999998E-2</v>
+      </c>
+      <c r="E243">
+        <v>75700</v>
+      </c>
+      <c r="F243">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>76900</v>
+      </c>
+      <c r="B244">
+        <v>5.0358E-2</v>
+      </c>
+      <c r="E244">
+        <v>76900</v>
+      </c>
+      <c r="F244">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>78000</v>
+      </c>
+      <c r="B245">
+        <v>5.0158000000000001E-2</v>
+      </c>
+      <c r="E245">
+        <v>78000</v>
+      </c>
+      <c r="F245">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>79200</v>
+      </c>
+      <c r="B246">
+        <v>4.1461999999999999E-2</v>
+      </c>
+      <c r="E246">
+        <v>79200</v>
+      </c>
+      <c r="F246">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>80300</v>
+      </c>
+      <c r="B247">
+        <v>2.7126000000000001E-2</v>
+      </c>
+      <c r="E247">
+        <v>80300</v>
+      </c>
+      <c r="F247">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>81500</v>
+      </c>
+      <c r="B248">
+        <v>2.6773999999999999E-2</v>
+      </c>
+      <c r="E248">
+        <v>81500</v>
+      </c>
+      <c r="F248">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>82600</v>
+      </c>
+      <c r="B249">
+        <v>2.1794000000000001E-2</v>
+      </c>
+      <c r="E249">
+        <v>82600</v>
+      </c>
+      <c r="F249">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>83900</v>
+      </c>
+      <c r="B250">
+        <v>1.7905999999999998E-2</v>
+      </c>
+      <c r="E250">
+        <v>83800</v>
+      </c>
+      <c r="F250">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>85100</v>
+      </c>
+      <c r="B251">
+        <v>1.7809999999999999E-2</v>
+      </c>
+      <c r="E251">
+        <v>84900</v>
+      </c>
+      <c r="F251">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>86200</v>
+      </c>
+      <c r="B252">
+        <v>1.5002E-2</v>
+      </c>
+      <c r="E252">
+        <v>86200</v>
+      </c>
+      <c r="F252">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>87400</v>
+      </c>
+      <c r="B253">
+        <v>1.3386E-2</v>
+      </c>
+      <c r="E253">
+        <v>87400</v>
+      </c>
+      <c r="F253">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>88500</v>
+      </c>
+      <c r="B254">
+        <v>1.3034E-2</v>
+      </c>
+      <c r="E254">
+        <v>88500</v>
+      </c>
+      <c r="F254">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>89700</v>
+      </c>
+      <c r="B255">
+        <v>8.9379999999999998E-3</v>
+      </c>
+      <c r="E255">
+        <v>89700</v>
+      </c>
+      <c r="F255">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>90800</v>
+      </c>
+      <c r="B256">
+        <v>7.5940000000000001E-3</v>
+      </c>
+      <c r="E256">
+        <v>90800</v>
+      </c>
+      <c r="F256">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>92000</v>
+      </c>
+      <c r="B257">
+        <v>5.8859999999999997E-3</v>
+      </c>
+      <c r="E257">
+        <v>92000</v>
+      </c>
+      <c r="F257">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>93100</v>
+      </c>
+      <c r="B258">
+        <v>5.8019999999999999E-3</v>
+      </c>
+      <c r="E258">
+        <v>93100</v>
+      </c>
+      <c r="F258">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>94400</v>
+      </c>
+      <c r="B259">
+        <v>4.6860000000000001E-3</v>
+      </c>
+      <c r="E259">
+        <v>94300</v>
+      </c>
+      <c r="F259">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>95600</v>
+      </c>
+      <c r="B260">
+        <v>4.398E-3</v>
+      </c>
+      <c r="E260">
+        <v>95400</v>
+      </c>
+      <c r="F260">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>96700</v>
+      </c>
+      <c r="B261">
+        <v>3.9779999999999998E-3</v>
+      </c>
+      <c r="E261">
+        <v>96700</v>
+      </c>
+      <c r="F261">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>97900</v>
+      </c>
+      <c r="B262">
+        <v>3.9459999999999999E-3</v>
+      </c>
+      <c r="E262">
+        <v>97900</v>
+      </c>
+      <c r="F262">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>99000</v>
+      </c>
+      <c r="B263">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="E263">
+        <v>99000</v>
+      </c>
+      <c r="F263">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>100200</v>
+      </c>
+      <c r="B264">
+        <v>3.3059999999999999E-3</v>
+      </c>
+      <c r="E264">
+        <v>100200</v>
+      </c>
+      <c r="F264">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>101300</v>
+      </c>
+      <c r="B265">
+        <v>3.2780000000000001E-3</v>
+      </c>
+      <c r="E265">
+        <v>101300</v>
+      </c>
+      <c r="F265">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>102500</v>
+      </c>
+      <c r="B266">
+        <v>2.4420000000000002E-3</v>
+      </c>
+      <c r="E266">
+        <v>102500</v>
+      </c>
+      <c r="F266">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>103600</v>
+      </c>
+      <c r="B267">
+        <v>2.3540000000000002E-3</v>
+      </c>
+      <c r="E267">
+        <v>103600</v>
+      </c>
+      <c r="F267">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>104800</v>
+      </c>
+      <c r="F268">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>105900</v>
+      </c>
+      <c r="F269">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>107200</v>
+      </c>
+      <c r="F270">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>108400</v>
+      </c>
+      <c r="F271">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>109500</v>
+      </c>
+      <c r="F272">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>110700</v>
+      </c>
+      <c r="F273">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>111800</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>113000</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>114100</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>115300</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C173:G176"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
